--- a/data/external/pilot_comparison/pilot_comparison_w_udofot.xlsx
+++ b/data/external/pilot_comparison/pilot_comparison_w_udofot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryuki/Development/l2speech-ree-group-proj/data/external/pilot_comparison/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06AB359E-6E1F-584A-8F36-6291A8C05554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4558F2-A393-8D46-8257-7AEC12CC0F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16020" xr2:uid="{6387D3C8-8653-394B-B616-04AF64C5039D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="28">
   <si>
     <t>to</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>Control</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>W</t>
@@ -511,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC1B69A-26C6-3B4B-9248-1AB0ABDDAE09}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -523,16 +520,16 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -566,55 +563,53 @@
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
@@ -623,299 +618,299 @@
         <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>11</v>
@@ -924,40 +919,40 @@
     <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/data/external/pilot_comparison/pilot_comparison_w_udofot.xlsx
+++ b/data/external/pilot_comparison/pilot_comparison_w_udofot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryuki/Development/l2speech-ree-group-proj/data/external/pilot_comparison/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4558F2-A393-8D46-8257-7AEC12CC0F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA513109-0B49-F44F-88EF-E3486AF27A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16020" xr2:uid="{6387D3C8-8653-394B-B616-04AF64C5039D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16000" xr2:uid="{6387D3C8-8653-394B-B616-04AF64C5039D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="29">
   <si>
     <t>to</t>
   </si>
@@ -120,13 +120,16 @@
   </si>
   <si>
     <t>qui</t>
+  </si>
+  <si>
+    <t>REE Pilot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -147,6 +150,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -156,10 +165,127 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -168,15 +294,354 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF303030"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF303030"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF303030"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF303030"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF303030"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF303030"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF303030"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF303030"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF303030"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF303030"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF303030"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF303030"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF303030"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF303030"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -187,6 +652,28 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5A21AC86-6313-D54F-AD63-A2EA3ABE5146}" name="Table1" displayName="Table1" ref="A1:M13" totalsRowShown="0" headerRowDxfId="8" dataDxfId="9">
+  <autoFilter ref="A1:M13" xr:uid="{5A21AC86-6313-D54F-AD63-A2EA3ABE5146}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{9C59AF78-DF86-3740-9946-DB93EBFE1925}" name="Group" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{92DA0839-526F-D742-80FD-A82E93CE8B55}" name="Subject" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{C2AC4052-5161-794D-8C03-8F8B6AD91C2E}" name="Mos" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{A5158A6B-DE1C-1846-B5CF-2F5335FFFEB4}" name="qui" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{EDD59B73-69BE-134F-8C3A-F863C53648C4}" name="to" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{DEE90E17-6625-D24F-BD8D-1B8FFB024971}" name="went" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{FB65746C-880C-D74A-9D64-EABF8290F3A3}" name="a" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{BF127D53-0808-A047-B180-68900450E4C5}" name="way" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{59D424DB-2CA0-984A-B281-CA9E595C7BEE}" name="hu" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{56620128-53FD-D343-9BFB-7D199A352ECD}" name="mil" dataDxfId="13"/>
+    <tableColumn id="11" xr3:uid="{0211EB53-2B21-3743-AF82-13C45E752BDB}" name="i" dataDxfId="12"/>
+    <tableColumn id="12" xr3:uid="{42678D84-C305-E744-B7DF-FDCAB31B5552}" name="at" dataDxfId="11"/>
+    <tableColumn id="13" xr3:uid="{D1224872-D98A-194F-914E-3283D190A5C2}" name="ed" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -506,41 +993,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC1B69A-26C6-3B4B-9248-1AB0ABDDAE09}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="13" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -561,401 +1051,484 @@
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="4">
+        <v>50699629</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="7">
+        <v>50724318</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="1" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="1" t="s">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>11</v>
+      <c r="A6" s="11"/>
+      <c r="B6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>11</v>
+    <row r="7" spans="1:13" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M8" s="1" t="s">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M9" s="1" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M10" s="1" t="s">
+    <row r="10" spans="1:13" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
+      <c r="A11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="11"/>
+      <c r="B12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M11" s="1" t="s">
+      <c r="C13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" s="7" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>